--- a/TestResults/ScriptGraphQL.xlsx
+++ b/TestResults/ScriptGraphQL.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="50">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -74,7 +74,7 @@
     <t>Pass</t>
   </si>
   <si>
-    <t>Total number of records matching between DB &amp; Response: 8, below are the test steps for this test case</t>
+    <t>Total number of records matching between DB &amp; Response: 9, below are the test steps for this test case</t>
   </si>
   <si>
     <t xml:space="preserve">Response_scrptCd: Ram
@@ -101,6 +101,15 @@
 DB_scrptNm: RahTest222
 Response_scrptDesc: RajestDesription222
 DB_scrptDesc: RajestDesription222
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_scrptCd: Data New Julyc
+DB_scrptCd: Data New Julyc
+Response_scrptNm: Data New Julyc
+DB_scrptNm: Data New Julyc
+Response_scrptDesc: 
+DB_scrptDesc: 
 </t>
   </si>
   <si>
@@ -205,7 +214,7 @@
 {
 	"query":"
 	{
-		  scripts (scriptCode : \"Xxxx\") 
+		  scripts (scriptCode : \"Qsai\") 
 		{
 			    scriptCode    scriptName    scriptDescription  
 		}
@@ -216,14 +225,23 @@
     <t>NA</t>
   </si>
   <si>
+    <t>SUCCESS</t>
+  </si>
+  <si>
     <t xml:space="preserve">
 {
 	"meta":
 	{
 		"version":"1.0.0",
-		"errors":
-		[
-		]
+		"transactionId":"baa2ecc4-b1e8-464a-91bf-f8d5fb7f589b",
+		"timeStamp":"2020-07-14T08:22:04.678+0000",
+		"statusCode":"200",
+		"message":
+		{
+			"status":"SUCCESS",
+			"internalMessage":null,
+			"data":null
+		}
 	},
 	"data":
 	{
@@ -244,7 +262,7 @@
 {
 	"query":"
 	{
-		  scripts (scriptCode : \"Xxxx\") 
+		  scripts (scriptCode : \"lhwq\") 
 		{
 			    scriptCode    scriptName    scriptDescription1  
 		}
@@ -252,21 +270,35 @@
 }</t>
   </si>
   <si>
+    <t>400</t>
+  </si>
+  <si>
     <t xml:space="preserve">
 {
 	"meta":
 	{
 		"version":"1.0.0",
-		"errors":
-		[
+		"transactionId":"b72baa3c-8d3f-4991-a4bc-2df017c285f3",
+		"timeStamp":"2020-07-14T08:22:06.029+0000",
+		"statusCode":"400",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Exception",
+			"data":
 			{
-				"error":"ValidationError",
-				"message":"Validation error of type FieldUndefined: Field 'scriptDescription1' in type 'Script' is undefined @ 'scripts/scriptDescription1'",
-				"path":null
+				"errorMessage":"Request Submitted With Error"
 			}
-		]
+		}
 	},
-	"data":null
+	"errors":
+	[
+		{
+			"error":"ValidationError",
+			"message":"Validation error of type FieldUndefined: Field 'scriptDescription1' in type 'Script' is undefined @ 'scripts/scriptDescription1'",
+			"path":null
+		}
+	]
 }</t>
   </si>
   <si>
@@ -293,21 +325,32 @@
 	"meta":
 	{
 		"version":"1.0.0",
-		"errors":
-		[
+		"transactionId":"c40691c5-d399-41a3-a345-39a88fee8045",
+		"timeStamp":"2020-07-14T08:22:07.361+0000",
+		"statusCode":"400",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Exception",
+			"data":
 			{
-				"error":"ValidationError",
-				"message":"Validation error of type FieldUndefined: Field 'scriptName2' in type 'Script' is undefined @ 'scripts/scriptName2'",
-				"path":null
-			},
-			{
-				"error":"ValidationError",
-				"message":"Validation error of type FieldUndefined: Field 'scriptDescription2' in type 'Script' is undefined @ 'scripts/scriptDescription2'",
-				"path":null
+				"errorMessage":"Request Submitted With Error"
 			}
-		]
+		}
 	},
-	"data":null
+	"errors":
+	[
+		{
+			"error":"ValidationError",
+			"message":"Validation error of type FieldUndefined: Field 'scriptName2' in type 'Script' is undefined @ 'scripts/scriptName2'",
+			"path":null
+		},
+		{
+			"error":"ValidationError",
+			"message":"Validation error of type FieldUndefined: Field 'scriptDescription2' in type 'Script' is undefined @ 'scripts/scriptDescription2'",
+			"path":null
+		}
+	]
 }</t>
   </si>
 </sst>
@@ -316,7 +359,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="178">
+  <fonts count="189">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -329,6 +372,61 @@
       <sz val="11.0"/>
       <color indexed="9"/>
       <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1277,7 +1375,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="189">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -1808,6 +1906,39 @@
       <alignment wrapText="true" horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="177" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="178" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="179" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="180" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="181" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="182" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="183" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="184" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="185" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="186" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="187" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="188" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
       <alignment wrapText="true" horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2178,14 +2309,14 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="101">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s" s="102">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C11" s="103"/>
       <c r="D11" t="s" s="104">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s" s="105">
         <v>14</v>
@@ -2197,29 +2328,29 @@
         <v>14</v>
       </c>
       <c r="H11" t="s" s="108">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I11" t="s" s="109">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="J11" t="s" s="110">
         <v>16</v>
       </c>
       <c r="K11" t="s" s="111">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="L11"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="112">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s" s="113">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12" s="114"/>
       <c r="D12" t="s" s="115">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E12" t="s" s="116">
         <v>14</v>
@@ -2231,29 +2362,29 @@
         <v>14</v>
       </c>
       <c r="H12" t="s" s="119">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I12" t="s" s="120">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J12" t="s" s="121">
         <v>16</v>
       </c>
       <c r="K12" t="s" s="122">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L12"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="123">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s" s="124">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C13" s="125"/>
       <c r="D13" t="s" s="126">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E13" t="s" s="127">
         <v>14</v>
@@ -2265,29 +2396,29 @@
         <v>14</v>
       </c>
       <c r="H13" t="s" s="130">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I13" t="s" s="131">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J13" t="s" s="132">
         <v>16</v>
       </c>
       <c r="K13" t="s" s="133">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="L13"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="134">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s" s="135">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C14" s="136"/>
       <c r="D14" t="s" s="137">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E14" t="s" s="138">
         <v>14</v>
@@ -2299,42 +2430,44 @@
         <v>14</v>
       </c>
       <c r="H14" t="s" s="141">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s" s="142">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="J14" t="s" s="143">
         <v>16</v>
       </c>
       <c r="K14" t="s" s="144">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L14"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="145">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s" s="146">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C15" s="147"/>
       <c r="D15" t="s" s="148">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E15" t="s" s="149">
         <v>14</v>
       </c>
       <c r="F15" t="s" s="150">
-        <v>37</v>
-      </c>
-      <c r="G15" s="151"/>
+        <v>14</v>
+      </c>
+      <c r="G15" t="s" s="151">
+        <v>14</v>
+      </c>
       <c r="H15" t="s" s="152">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I15" t="s" s="153">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="J15" t="s" s="154">
         <v>16</v>
@@ -2346,29 +2479,29 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="156">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s" s="157">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C16" s="158"/>
       <c r="D16" t="s" s="159">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E16" t="s" s="160">
         <v>14</v>
       </c>
       <c r="F16" t="s" s="161">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G16" t="s" s="162">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="H16" t="s" s="163">
         <v>15</v>
       </c>
       <c r="I16" t="s" s="164">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J16" t="s" s="165">
         <v>16</v>
@@ -2380,29 +2513,29 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="167">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s" s="168">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C17" s="169"/>
       <c r="D17" t="s" s="170">
+        <v>43</v>
+      </c>
+      <c r="E17" t="s" s="171">
+        <v>14</v>
+      </c>
+      <c r="F17" t="s" s="172">
+        <v>38</v>
+      </c>
+      <c r="G17" t="s" s="173">
+        <v>14</v>
+      </c>
+      <c r="H17" t="s" s="174">
+        <v>44</v>
+      </c>
+      <c r="I17" t="s" s="175">
         <v>45</v>
-      </c>
-      <c r="E17" t="s" s="171">
-        <v>14</v>
-      </c>
-      <c r="F17" t="s" s="172">
-        <v>37</v>
-      </c>
-      <c r="G17" t="s" s="173">
-        <v>14</v>
-      </c>
-      <c r="H17" t="s" s="174">
-        <v>15</v>
-      </c>
-      <c r="I17" t="s" s="175">
-        <v>46</v>
       </c>
       <c r="J17" t="s" s="176">
         <v>16</v>
@@ -2411,6 +2544,40 @@
         <v>14</v>
       </c>
       <c r="L17"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="178">
+        <v>46</v>
+      </c>
+      <c r="B18" t="s" s="179">
+        <v>47</v>
+      </c>
+      <c r="C18" s="180"/>
+      <c r="D18" t="s" s="181">
+        <v>48</v>
+      </c>
+      <c r="E18" t="s" s="182">
+        <v>14</v>
+      </c>
+      <c r="F18" t="s" s="183">
+        <v>38</v>
+      </c>
+      <c r="G18" t="s" s="184">
+        <v>14</v>
+      </c>
+      <c r="H18" t="s" s="185">
+        <v>44</v>
+      </c>
+      <c r="I18" t="s" s="186">
+        <v>49</v>
+      </c>
+      <c r="J18" t="s" s="187">
+        <v>16</v>
+      </c>
+      <c r="K18" t="s" s="188">
+        <v>14</v>
+      </c>
+      <c r="L18"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
